--- a/lib/sample.xlsx
+++ b/lib/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15075" windowHeight="6705"/>
+    <workbookView activeTab="0" windowHeight="6705" windowWidth="15075" xWindow="0" yWindow="120"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="4" r:id="rId1"/>
@@ -33,25 +33,42 @@
   <si>
     <t>百度</t>
   </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,23 +82,33 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,49 +411,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="15.625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row ht="16.5" customHeight="1" r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+    <row ht="16.5" customHeight="1" r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.4</v>
+      <c r="B2" s="0">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+    <row ht="16.5" customHeight="1" r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.3</v>
+      <c r="B3" s="0">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -436,39 +453,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13"/>
+  <sheetData>
+</sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13"/>
+  <sheetData>
+</sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13"/>
+  <sheetData>
+</sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
